--- a/data/241110_Burst_summary.xlsx
+++ b/data/241110_Burst_summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gvictora/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gvictora/Dropbox @RU Dropbox/Victora Laboratory/Lab-shared/lab papers/in progress/2024 Pae burst mutations/_revision/Figures/will/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADB6102-5C0C-764C-A701-33E0636F28FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ECC88AA-7216-004E-8ABC-0DCE933B9D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29280" windowHeight="18880" xr2:uid="{D3DF85D3-3794-E84F-8D75-6BE89C44F61B}"/>
   </bookViews>
@@ -346,7 +346,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -373,8 +373,13 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,12 +389,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.89999084444715716"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,21 +420,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,854 +770,867 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77835F54-158C-8B42-BFD6-2BC530E21180}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="10" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="10" customWidth="1"/>
-    <col min="6" max="9" width="12.83203125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="14.1640625" style="10" customWidth="1"/>
-    <col min="11" max="16" width="12.83203125" style="10" customWidth="1"/>
-    <col min="17" max="18" width="10.83203125" style="10"/>
-    <col min="19" max="19" width="76.5" style="10" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="10"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="9" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="16" width="12.83203125" customWidth="1"/>
+    <col min="19" max="19" width="76.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="12" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:19" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" t="s">
         <v>93</v>
       </c>
-      <c r="S1" s="4"/>
-    </row>
-    <row r="2" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="S1"/>
+    </row>
+    <row r="2" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>31</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>42</v>
       </c>
-      <c r="E2" s="8">
-        <f>D2+C2</f>
+      <c r="E2" s="7">
+        <f t="shared" ref="E2:E13" si="0">D2+C2</f>
         <v>73</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>78</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>1.0065858130368261</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>0.65291936978683962</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <f>G2*H2</f>
         <v>0.65721937468437808</v>
       </c>
-      <c r="J2" s="9">
-        <f>2000*G2/F2</f>
+      <c r="J2" s="8">
+        <f t="shared" ref="J2:J13" si="1">2000*G2/F2</f>
         <v>25.809892641969903</v>
       </c>
-      <c r="K2" s="9">
-        <f>C2*J2</f>
+      <c r="K2" s="8">
+        <f t="shared" ref="K2:K13" si="2">C2*J2</f>
         <v>800.10667190106699</v>
       </c>
-      <c r="L2" s="9">
-        <f>D2*J2</f>
+      <c r="L2" s="8">
+        <f t="shared" ref="L2:L13" si="3">D2*J2</f>
         <v>1084.0154909627358</v>
       </c>
-      <c r="M2" s="9">
-        <f>C2/(C2+D2)*100</f>
+      <c r="M2" s="8">
+        <f t="shared" ref="M2:M13" si="4">C2/(C2+D2)*100</f>
         <v>42.465753424657535</v>
       </c>
-      <c r="N2" s="9">
-        <f>LOG(K2, 2)</f>
+      <c r="N2" s="8">
+        <f t="shared" ref="N2:N13" si="5">LOG(K2, 2)</f>
         <v>9.6440485457289906</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="7">
         <v>17</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="7">
         <v>10</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>15</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>15</v>
       </c>
-      <c r="E3" s="8">
-        <f>D3+C3</f>
+      <c r="E3" s="7">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>44</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>0.90742375079216619</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>0.7558139534883721</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <f>G3*H3</f>
         <v>0.68584353257547448</v>
       </c>
-      <c r="J3" s="9">
-        <f>2000*G3/F3</f>
+      <c r="J3" s="8">
+        <f t="shared" si="1"/>
         <v>41.246534126916643</v>
       </c>
-      <c r="K3" s="9">
-        <f>C3*J3</f>
+      <c r="K3" s="8">
+        <f t="shared" si="2"/>
         <v>618.6980119037496</v>
       </c>
-      <c r="L3" s="9">
-        <f>D3*J3</f>
+      <c r="L3" s="8">
+        <f t="shared" si="3"/>
         <v>618.6980119037496</v>
       </c>
-      <c r="M3" s="9">
-        <f>C3/(C3+D3)*100</f>
+      <c r="M3" s="8">
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="N3" s="9">
-        <f>LOG(K3, 2)</f>
+      <c r="N3" s="8">
+        <f t="shared" si="5"/>
         <v>9.2730915878426323</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="7">
         <v>21</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="7">
         <v>14</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>17</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>12</v>
       </c>
-      <c r="E4" s="8">
-        <f>D4+C4</f>
+      <c r="E4" s="7">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>45</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="8">
         <v>0.80033498465413244</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="10">
         <v>0.71693735498839906</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="10">
         <f>G4*H4</f>
         <v>0.57379004700261471</v>
       </c>
-      <c r="J4" s="9">
-        <f>2000*G4/F4</f>
+      <c r="J4" s="8">
+        <f t="shared" si="1"/>
         <v>35.570443762405887</v>
       </c>
-      <c r="K4" s="9">
-        <f>C4*J4</f>
+      <c r="K4" s="8">
+        <f t="shared" si="2"/>
         <v>604.69754396090002</v>
       </c>
-      <c r="L4" s="9">
-        <f>D4*J4</f>
+      <c r="L4" s="8">
+        <f t="shared" si="3"/>
         <v>426.84532514887064</v>
       </c>
-      <c r="M4" s="9">
-        <f>C4/(C4+D4)*100</f>
+      <c r="M4" s="8">
+        <f t="shared" si="4"/>
         <v>58.620689655172406</v>
       </c>
-      <c r="N4" s="9">
-        <f>LOG(K4, 2)</f>
+      <c r="N4" s="8">
+        <f t="shared" si="5"/>
         <v>9.2400699091269729</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <v>17</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="7">
         <v>12</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>13</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>55</v>
       </c>
-      <c r="E5" s="8">
-        <f>D5+C5</f>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>89</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>0.92092624065891604</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="9">
-        <f>2000*G5/F5</f>
+      <c r="H5" s="11">
+        <v>0.78</v>
+      </c>
+      <c r="I5" s="12">
+        <f t="shared" ref="I5:I13" si="6">G5*H5</f>
+        <v>0.71832246771395458</v>
+      </c>
+      <c r="J5" s="8">
+        <f t="shared" si="1"/>
         <v>20.694971700200362</v>
       </c>
-      <c r="K5" s="9">
-        <f>C5*J5</f>
+      <c r="K5" s="8">
+        <f t="shared" si="2"/>
         <v>269.03463210260469</v>
       </c>
-      <c r="L5" s="9">
-        <f>D5*J5</f>
+      <c r="L5" s="8">
+        <f t="shared" si="3"/>
         <v>1138.2234435110199</v>
       </c>
-      <c r="M5" s="9">
-        <f>C5/(C5+D5)*100</f>
+      <c r="M5" s="8">
+        <f t="shared" si="4"/>
         <v>19.117647058823529</v>
       </c>
-      <c r="N5" s="9">
-        <f>LOG(K5, 2)</f>
+      <c r="N5" s="8">
+        <f t="shared" si="5"/>
         <v>8.0716480887525659</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <v>21</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="7">
         <v>14</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>17</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>49</v>
       </c>
-      <c r="E6" s="8">
-        <f>D6+C6</f>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>90</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>0.7974232826796197</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="9">
-        <f>2000*G6/F6</f>
+      <c r="H6" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="I6" s="12">
+        <f t="shared" si="6"/>
+        <v>0.62996439331689957</v>
+      </c>
+      <c r="J6" s="8">
+        <f t="shared" si="1"/>
         <v>17.720517392880438</v>
       </c>
-      <c r="K6" s="9">
-        <f>C6*J6</f>
+      <c r="K6" s="8">
+        <f t="shared" si="2"/>
         <v>301.24879567896744</v>
       </c>
-      <c r="L6" s="9">
-        <f>D6*J6</f>
+      <c r="L6" s="8">
+        <f t="shared" si="3"/>
         <v>868.30535225114147</v>
       </c>
-      <c r="M6" s="9">
-        <f>C6/(C6+D6)*100</f>
+      <c r="M6" s="8">
+        <f t="shared" si="4"/>
         <v>25.757575757575758</v>
       </c>
-      <c r="N6" s="9">
-        <f>LOG(K6, 2)</f>
+      <c r="N6" s="8">
+        <f t="shared" si="5"/>
         <v>8.2348116635772275</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <v>21</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="7">
         <v>14</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="S6" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>13</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>41</v>
       </c>
-      <c r="E7" s="8">
-        <f>D7+C7</f>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>68</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>0.76263518806743447</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="12">
         <v>0.85833333333333328</v>
       </c>
-      <c r="I7" s="9">
-        <f>G7*H7</f>
+      <c r="I7" s="12">
+        <f t="shared" si="6"/>
         <v>0.65459520309121455</v>
       </c>
-      <c r="J7" s="9">
-        <f>2000*G7/F7</f>
+      <c r="J7" s="8">
+        <f t="shared" si="1"/>
         <v>22.43044670786572</v>
       </c>
-      <c r="K7" s="9">
-        <f>C7*J7</f>
+      <c r="K7" s="8">
+        <f t="shared" si="2"/>
         <v>291.59580720225438</v>
       </c>
-      <c r="L7" s="9">
-        <f>D7*J7</f>
+      <c r="L7" s="8">
+        <f t="shared" si="3"/>
         <v>919.64831502249456</v>
       </c>
-      <c r="M7" s="9">
-        <f>C7/(C7+D7)*100</f>
+      <c r="M7" s="8">
+        <f t="shared" si="4"/>
         <v>24.074074074074073</v>
       </c>
-      <c r="N7" s="9">
-        <f>LOG(K7, 2)</f>
+      <c r="N7" s="8">
+        <f t="shared" si="5"/>
         <v>8.1878261653654913</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <v>17</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="7">
         <v>12</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="S7" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>32</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>36</v>
       </c>
-      <c r="E8" s="8">
-        <f>D8+C8</f>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>71</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="8">
         <v>0.69046647051665011</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="12">
         <v>0.74675324675324672</v>
       </c>
-      <c r="I8" s="9">
-        <f>G8*H8</f>
+      <c r="I8" s="12">
+        <f t="shared" si="6"/>
         <v>0.51560807863256342</v>
       </c>
-      <c r="J8" s="9">
-        <f>2000*G8/F8</f>
+      <c r="J8" s="8">
+        <f t="shared" si="1"/>
         <v>19.449759732863384</v>
       </c>
-      <c r="K8" s="9">
-        <f>C8*J8</f>
+      <c r="K8" s="8">
+        <f t="shared" si="2"/>
         <v>622.3923114516283</v>
       </c>
-      <c r="L8" s="9">
-        <f>D8*J8</f>
+      <c r="L8" s="8">
+        <f t="shared" si="3"/>
         <v>700.19135038308184</v>
       </c>
-      <c r="M8" s="9">
-        <f>C8/(C8+D8)*100</f>
+      <c r="M8" s="8">
+        <f t="shared" si="4"/>
         <v>47.058823529411761</v>
       </c>
-      <c r="N8" s="9">
-        <f>LOG(K8, 2)</f>
+      <c r="N8" s="8">
+        <f t="shared" si="5"/>
         <v>9.2816804282814775</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="7">
         <v>17</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="7">
         <v>12</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="S8" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>10</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>24</v>
       </c>
-      <c r="E9" s="8">
-        <f>D9+C9</f>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>90</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="8">
         <v>0.82148165890870917</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="12">
         <v>0.6344827586206897</v>
       </c>
-      <c r="I9" s="9">
-        <f>G9*H9</f>
+      <c r="I9" s="12">
+        <f t="shared" si="6"/>
         <v>0.52121594910069824</v>
       </c>
-      <c r="J9" s="9">
-        <f>2000*G9/F9</f>
+      <c r="J9" s="8">
+        <f t="shared" si="1"/>
         <v>18.255147975749093</v>
       </c>
-      <c r="K9" s="9">
-        <f>C9*J9</f>
+      <c r="K9" s="8">
+        <f t="shared" si="2"/>
         <v>182.55147975749094</v>
       </c>
-      <c r="L9" s="9">
-        <f>D9*J9</f>
+      <c r="L9" s="8">
+        <f t="shared" si="3"/>
         <v>438.12355141797821</v>
       </c>
-      <c r="M9" s="9">
-        <f>C9/(C9+D9)*100</f>
+      <c r="M9" s="8">
+        <f t="shared" si="4"/>
         <v>29.411764705882355</v>
       </c>
-      <c r="N9" s="9">
-        <f>LOG(K9, 2)</f>
+      <c r="N9" s="8">
+        <f t="shared" si="5"/>
         <v>7.5121595530429559</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="7">
         <v>17</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="7">
         <v>12</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="R9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="S9" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>10</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>32</v>
       </c>
-      <c r="E10" s="8">
-        <f>D10+C10</f>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>77</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>0.70772813227956644</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="12">
         <v>0.71818181818181814</v>
       </c>
-      <c r="I10" s="9">
-        <f>G10*H10</f>
+      <c r="I10" s="12">
+        <f t="shared" si="6"/>
         <v>0.50827747681896129</v>
       </c>
-      <c r="J10" s="9">
-        <f>2000*G10/F10</f>
+      <c r="J10" s="8">
+        <f t="shared" si="1"/>
         <v>18.382548890378349</v>
       </c>
-      <c r="K10" s="9">
-        <f>C10*J10</f>
+      <c r="K10" s="8">
+        <f t="shared" si="2"/>
         <v>183.82548890378348</v>
       </c>
-      <c r="L10" s="9">
-        <f>D10*J10</f>
+      <c r="L10" s="8">
+        <f t="shared" si="3"/>
         <v>588.24156449210716</v>
       </c>
-      <c r="M10" s="9">
-        <f>C10/(C10+D10)*100</f>
+      <c r="M10" s="8">
+        <f t="shared" si="4"/>
         <v>23.809523809523807</v>
       </c>
-      <c r="N10" s="9">
-        <f>LOG(K10, 2)</f>
+      <c r="N10" s="8">
+        <f t="shared" si="5"/>
         <v>7.5221930117093425</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="7">
         <v>17</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="7">
         <v>12</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="R10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="S10" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>13</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>40</v>
       </c>
-      <c r="E11" s="8">
-        <f>D11+C11</f>
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>82</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>0.95090988665885623</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="9">
-        <f>2000*G11/F11</f>
+      <c r="H11" s="12">
+        <v>0.83</v>
+      </c>
+      <c r="I11" s="12">
+        <f t="shared" si="6"/>
+        <v>0.78925520592685061</v>
+      </c>
+      <c r="J11" s="8">
+        <f t="shared" si="1"/>
         <v>23.19292406485015</v>
       </c>
-      <c r="K11" s="9">
-        <f>C11*J11</f>
+      <c r="K11" s="8">
+        <f t="shared" si="2"/>
         <v>301.50801284305197</v>
       </c>
-      <c r="L11" s="9">
-        <f>D11*J11</f>
+      <c r="L11" s="8">
+        <f t="shared" si="3"/>
         <v>927.71696259400596</v>
       </c>
-      <c r="M11" s="9">
-        <f>C11/(C11+D11)*100</f>
+      <c r="M11" s="8">
+        <f t="shared" si="4"/>
         <v>24.528301886792452</v>
       </c>
-      <c r="N11" s="9">
-        <f>LOG(K11, 2)</f>
+      <c r="N11" s="8">
+        <f t="shared" si="5"/>
         <v>8.2360525333107759</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="7">
         <v>21</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="7">
         <v>14</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="R11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S11" s="6" t="s">
+      <c r="S11" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>5</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <f>38-C12</f>
         <v>33</v>
       </c>
-      <c r="E12" s="8">
-        <f>D12+C12</f>
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>56</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>0.76495029301736417</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="12">
         <v>0.75427350427350426</v>
       </c>
-      <c r="I12" s="9">
-        <f>G12*H12</f>
+      <c r="I12" s="12">
+        <f t="shared" si="6"/>
         <v>0.57698173810925113</v>
       </c>
-      <c r="J12" s="9">
-        <f>2000*G12/F12</f>
+      <c r="J12" s="8">
+        <f t="shared" si="1"/>
         <v>27.319653322048719</v>
       </c>
-      <c r="K12" s="9">
-        <f>C12*J12</f>
+      <c r="K12" s="8">
+        <f t="shared" si="2"/>
         <v>136.5982666102436</v>
       </c>
-      <c r="L12" s="9">
-        <f>D12*J12</f>
+      <c r="L12" s="8">
+        <f t="shared" si="3"/>
         <v>901.54855962760769</v>
       </c>
-      <c r="M12" s="9">
-        <f>C12/(C12+D12)*100</f>
+      <c r="M12" s="8">
+        <f t="shared" si="4"/>
         <v>13.157894736842104</v>
       </c>
-      <c r="N12" s="9">
-        <f>LOG(K12, 2)</f>
+      <c r="N12" s="8">
+        <f t="shared" si="5"/>
         <v>7.0937953661650104</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="7">
         <v>17</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="7">
         <v>12</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="S12" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>11</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>37</v>
       </c>
-      <c r="E13" s="8">
-        <f>D13+C13</f>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>57</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>0.7946320493723702</v>
       </c>
       <c r="H13" s="9">
         <v>0.83636363636363631</v>
       </c>
       <c r="I13" s="9">
-        <f>G13*H13</f>
+        <f t="shared" si="6"/>
         <v>0.66460135038416412</v>
       </c>
-      <c r="J13" s="9">
-        <f>2000*G13/F13</f>
+      <c r="J13" s="8">
+        <f t="shared" si="1"/>
         <v>27.881826293767375</v>
       </c>
-      <c r="K13" s="9">
-        <f>C13*J13</f>
+      <c r="K13" s="8">
+        <f t="shared" si="2"/>
         <v>306.7000892314411</v>
       </c>
-      <c r="L13" s="9">
-        <f>D13*J13</f>
+      <c r="L13" s="8">
+        <f t="shared" si="3"/>
         <v>1031.6275728693929</v>
       </c>
-      <c r="M13" s="9">
-        <f>C13/(C13+D13)*100</f>
+      <c r="M13" s="8">
+        <f t="shared" si="4"/>
         <v>22.916666666666664</v>
       </c>
-      <c r="N13" s="9">
-        <f>LOG(K13, 2)</f>
+      <c r="N13" s="8">
+        <f t="shared" si="5"/>
         <v>8.260684776117964</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="7">
         <v>17</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="7">
         <v>12</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="R13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="S13" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="R14" s="6" t="s">
+    <row r="14" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="S14" s="6" t="s">
+      <c r="S14" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="R15" s="6" t="s">
+    <row r="15" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="S15" s="6" t="s">
+      <c r="S15" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="R16" s="6" t="s">
+    <row r="16" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R16" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="S16" s="6" t="s">
+      <c r="S16" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="18:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="R17" s="6" t="s">
+    <row r="17" spans="18:19" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R17" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="S17" s="6" t="s">
+      <c r="S17" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="18:19" s="7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="18:19" s="6" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
